--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luism\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Desktop\TFG_Lorena\Trabajo-Fin-de-Grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCE4064-42E2-44A7-814C-A1CA888C2E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F602BB4-43A8-4140-BC62-D6B78B85E515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -727,7 +727,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -762,15 +762,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -788,16 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -819,50 +801,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,237 +1159,237 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="19" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" customWidth="1"/>
+    <col min="3" max="19" width="4.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="44" t="s">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="58" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="44" t="s">
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="44" t="s">
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="71" t="s">
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="65" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="86" t="s">
+      <c r="H3" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="87" t="s">
+      <c r="I3" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="86" t="s">
+      <c r="K3" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="86" t="s">
+      <c r="M3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="83" t="s">
+      <c r="O3" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="86" t="s">
+      <c r="P3" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="86" t="s">
+      <c r="Q3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="87" t="s">
+      <c r="R3" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="88" t="s">
+      <c r="S3" s="79" t="s">
         <v>44</v>
       </c>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="80" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="61"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="55"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="65"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="59"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="65"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="59"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="21"/>
-      <c r="S4" s="72"/>
-    </row>
-    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="90" t="s">
+      <c r="S4" s="66"/>
+    </row>
+    <row r="5" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="88"/>
+      <c r="B5" s="81" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="62"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="56"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="62"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="62"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="56"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="23"/>
-      <c r="S5" s="73"/>
-    </row>
-    <row r="6" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
-      <c r="B6" s="91" t="s">
+      <c r="S5" s="67"/>
+    </row>
+    <row r="6" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="87"/>
+      <c r="B6" s="82" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="25"/>
-      <c r="E6" s="49"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="24"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
-      <c r="I6" s="49"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="24"/>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
-      <c r="N6" s="49"/>
+      <c r="N6" s="46"/>
       <c r="O6" s="24"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="28"/>
-      <c r="S6" s="74"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S6" s="68"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="73" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="30"/>
-      <c r="E7" s="50"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="39"/>
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
-      <c r="I7" s="50"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="39"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
-      <c r="N7" s="50"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="39"/>
       <c r="P7" s="32"/>
       <c r="Q7" s="32"/>
       <c r="R7" s="33"/>
-      <c r="S7" s="75"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="s">
+      <c r="S7" s="69"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="73" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="31"/>
-      <c r="E8" s="51"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="29"/>
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
-      <c r="I8" s="50"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="39"/>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
-      <c r="N8" s="50"/>
+      <c r="N8" s="47"/>
       <c r="O8" s="39"/>
       <c r="P8" s="32"/>
       <c r="Q8" s="32"/>
       <c r="R8" s="33"/>
-      <c r="S8" s="75"/>
-    </row>
-    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
+      <c r="S8" s="69"/>
+    </row>
+    <row r="9" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="80" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="52"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="34"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -1403,65 +1403,65 @@
       <c r="P9" s="20"/>
       <c r="Q9" s="20"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="72"/>
-    </row>
-    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="90" t="s">
+      <c r="S9" s="66"/>
+    </row>
+    <row r="10" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="88"/>
+      <c r="B10" s="81" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="53"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="35"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="66"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="60"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
-      <c r="N10" s="53"/>
+      <c r="N10" s="50"/>
       <c r="O10" s="35"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="23"/>
-      <c r="S10" s="73"/>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="79"/>
-      <c r="B11" s="91" t="s">
+      <c r="S10" s="67"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="87"/>
+      <c r="B11" s="82" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="54"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="36"/>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
+      <c r="I11" s="51"/>
       <c r="J11" s="36"/>
       <c r="K11" s="38"/>
       <c r="L11" s="37"/>
       <c r="M11" s="37"/>
-      <c r="N11" s="54"/>
+      <c r="N11" s="51"/>
       <c r="O11" s="36"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
       <c r="R11" s="28"/>
-      <c r="S11" s="74"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="s">
+      <c r="S11" s="68"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="80" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="64"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
@@ -1474,57 +1474,57 @@
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="21"/>
-      <c r="S12" s="72"/>
-    </row>
-    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="90" t="s">
+      <c r="S12" s="66"/>
+    </row>
+    <row r="13" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="88"/>
+      <c r="B13" s="81" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="53"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="35"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="53"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="35"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="53"/>
+      <c r="N13" s="50"/>
       <c r="O13" s="35"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="23"/>
-      <c r="S13" s="73"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="90" t="s">
+      <c r="S13" s="67"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="88"/>
+      <c r="B14" s="81" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="53"/>
+      <c r="E14" s="50"/>
       <c r="F14" s="35"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="53"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="35"/>
       <c r="K14" s="13"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="63"/>
+      <c r="N14" s="57"/>
       <c r="O14" s="35"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="23"/>
-      <c r="S14" s="73"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="78"/>
-      <c r="B15" s="90" t="s">
+      <c r="S14" s="67"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="88"/>
+      <c r="B15" s="81" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="40"/>
@@ -1538,16 +1538,16 @@
       <c r="K15" s="14"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="66"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="60"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="23"/>
-      <c r="S15" s="73"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="79"/>
-      <c r="B16" s="91" t="s">
+      <c r="S15" s="67"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="87"/>
+      <c r="B16" s="82" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="41"/>
@@ -1562,40 +1562,40 @@
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="28"/>
-      <c r="O16" s="67"/>
+      <c r="O16" s="61"/>
       <c r="P16" s="38"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="28"/>
-      <c r="S16" s="74"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="77" t="s">
+      <c r="S16" s="68"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="80" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="64"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="64"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="58"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="64"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="58"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="72"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="79"/>
-      <c r="B18" s="91" t="s">
+      <c r="R17" s="49"/>
+      <c r="S17" s="66"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="87"/>
+      <c r="B18" s="82" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="41"/>
@@ -1613,48 +1613,48 @@
       <c r="O18" s="41"/>
       <c r="P18" s="27"/>
       <c r="Q18" s="38"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="74"/>
-    </row>
-    <row r="19" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="81" t="s">
+      <c r="R18" s="62"/>
+      <c r="S18" s="68"/>
+    </row>
+    <row r="19" spans="1:19" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="76"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="70"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
     </row>
   </sheetData>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Desktop\TFG_Lorena\Trabajo-Fin-de-Grado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luism\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F602BB4-43A8-4140-BC62-D6B78B85E515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF0C4EE-08E3-4708-97AD-C44ECEB0D55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>INVESTIGACIÓN Y REVISIÓN BIBLIOGRÁFICA</t>
   </si>
@@ -51,9 +51,6 @@
     <t>DESARROLLO DEL ALGORITMO</t>
   </si>
   <si>
-    <t>Definir que relaciones se quieren modelar en los datos</t>
-  </si>
-  <si>
     <t>Diseñar el algoritmo y seleccionar las herramientas</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>Diseñar la estructura y funcionalidad de la APP</t>
   </si>
   <si>
-    <t>Implementar la interfaz en SHINY</t>
-  </si>
-  <si>
     <t>Integrar el algoritmo con la aplicación</t>
   </si>
   <si>
@@ -160,6 +154,9 @@
   </si>
   <si>
     <t>02-06</t>
+  </si>
+  <si>
+    <t>Definir los algoritmos a desarrollar</t>
   </si>
 </sst>
 </file>
@@ -205,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +227,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -687,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -745,8 +772,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
@@ -772,7 +797,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -864,6 +888,18 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,6 +908,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FF215EE7"/>
       <color rgb="FF8CBDFE"/>
       <color rgb="FFBFD8EF"/>
@@ -1156,517 +1193,494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="35.54296875" customWidth="1"/>
-    <col min="3" max="19" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="19" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="83" t="s">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="89" t="s">
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="83" t="s">
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="83" t="s">
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="65" t="s">
+      <c r="D3" s="72" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="43" t="s">
+      <c r="E3" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="74" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>24</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="55"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="59"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="59"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="56"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="21"/>
-      <c r="S4" s="66"/>
-    </row>
-    <row r="5" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="88"/>
-      <c r="B5" s="81" t="s">
+      <c r="S4" s="63"/>
+    </row>
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="85"/>
+      <c r="B5" s="78" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="56"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="56"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="53"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="56"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="53"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="23"/>
-      <c r="S5" s="67"/>
-    </row>
-    <row r="6" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="87"/>
-      <c r="B6" s="82" t="s">
+      <c r="S5" s="64"/>
+    </row>
+    <row r="6" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="84"/>
+      <c r="B6" s="79" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="25"/>
-      <c r="E6" s="46"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="24"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
-      <c r="I6" s="46"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="24"/>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
-      <c r="N6" s="46"/>
+      <c r="N6" s="44"/>
       <c r="O6" s="24"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="28"/>
-      <c r="S6" s="68"/>
-    </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S6" s="65"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="69"/>
-    </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="71" t="s">
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="66"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="69"/>
-    </row>
-    <row r="9" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="86" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="66"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="34"/>
+      <c r="B9" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="32"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="10"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="93"/>
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="34"/>
+      <c r="J9" s="32"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="34"/>
+      <c r="O9" s="32"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="20"/>
       <c r="R9" s="21"/>
-      <c r="S9" s="66"/>
-    </row>
-    <row r="10" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="88"/>
-      <c r="B10" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="35"/>
+      <c r="S9" s="63"/>
+    </row>
+    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="85"/>
+      <c r="B10" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="33"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="35"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="60"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="57"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="35"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="33"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="23"/>
-      <c r="S10" s="67"/>
-    </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="87"/>
-      <c r="B11" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="36"/>
+      <c r="S10" s="64"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="84"/>
+      <c r="B11" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="34"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
       <c r="R11" s="28"/>
-      <c r="S11" s="68"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="S11" s="65"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="34"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="34"/>
+      <c r="O12" s="32"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="21"/>
-      <c r="S12" s="66"/>
-    </row>
-    <row r="13" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="88"/>
-      <c r="B13" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="35"/>
+      <c r="S12" s="63"/>
+    </row>
+    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="85"/>
+      <c r="B13" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="33"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="35"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="33"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="35"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="33"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="23"/>
-      <c r="S13" s="67"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="88"/>
-      <c r="B14" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="13"/>
+      <c r="S13" s="64"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="85"/>
+      <c r="B14" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="35"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="57"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="23"/>
-      <c r="S14" s="67"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="88"/>
-      <c r="B15" s="81" t="s">
+      <c r="S14" s="64"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="84"/>
+      <c r="B15" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="65"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="67"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="87"/>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="68"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="86" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="63"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="84"/>
+      <c r="B17" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="65"/>
+    </row>
+    <row r="18" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="66"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="87"/>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="68"/>
-    </row>
-    <row r="19" spans="1:19" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="70"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="67"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="O2:R2"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="J2:N2"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luism\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Desktop\TFG_Lorena\Trabajo-Fin-de-Grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF0C4EE-08E3-4708-97AD-C44ECEB0D55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE152603-4677-4094-B102-A47232E3CC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>INVESTIGACIÓN Y REVISIÓN BIBLIOGRÁFICA</t>
   </si>
@@ -157,13 +157,16 @@
   </si>
   <si>
     <t>Definir los algoritmos a desarrollar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrucción de mapas predesarrollo </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,8 +204,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +274,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -714,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -826,9 +849,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -861,6 +881,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -876,30 +899,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,6 +925,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7C80"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF215EE7"/>
       <color rgb="FF8CBDFE"/>
@@ -1193,114 +1211,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="19" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.54296875" customWidth="1"/>
+    <col min="3" max="19" width="4.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="80" t="s">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="86" t="s">
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="80" t="s">
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="80" t="s">
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="82"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="84"/>
       <c r="S2" s="62" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="74" t="s">
+      <c r="L3" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="74" t="s">
+      <c r="M3" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="71" t="s">
+      <c r="O3" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="74" t="s">
+      <c r="P3" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="74" t="s">
+      <c r="Q3" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="75" t="s">
+      <c r="R3" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="76" t="s">
+      <c r="S3" s="75" t="s">
         <v>42</v>
       </c>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="16"/>
@@ -1321,9 +1339,9 @@
       <c r="R4" s="21"/>
       <c r="S4" s="63"/>
     </row>
-    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="78" t="s">
+    <row r="5" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="90"/>
+      <c r="B5" s="77" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="22"/>
@@ -1344,9 +1362,9 @@
       <c r="R5" s="23"/>
       <c r="S5" s="64"/>
     </row>
-    <row r="6" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
-      <c r="B6" s="79" t="s">
+    <row r="6" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="86"/>
+      <c r="B6" s="78" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="24"/>
@@ -1367,18 +1385,18 @@
       <c r="R6" s="28"/>
       <c r="S6" s="65"/>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="29"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
       <c r="H7" s="29"/>
       <c r="I7" s="45"/>
       <c r="J7" s="37"/>
@@ -1392,18 +1410,18 @@
       <c r="R7" s="31"/>
       <c r="S7" s="66"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="s">
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="69" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="90"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="95"/>
       <c r="H8" s="29"/>
       <c r="I8" s="45"/>
       <c r="J8" s="37"/>
@@ -1417,270 +1435,294 @@
       <c r="R8" s="31"/>
       <c r="S8" s="66"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="86"/>
+      <c r="B9" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="66"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B10" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="63"/>
-    </row>
-    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="78" t="s">
+      <c r="C10" s="32"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="63"/>
+    </row>
+    <row r="11" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="90"/>
+      <c r="B11" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="64"/>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
-      <c r="B11" s="79" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="64"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="86"/>
+      <c r="B12" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="65"/>
-    </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="65"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B13" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="63"/>
-    </row>
-    <row r="13" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
-      <c r="B13" s="78" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="63"/>
+    </row>
+    <row r="14" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="90"/>
+      <c r="B14" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="64"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
-      <c r="B14" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="57"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="33"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="23"/>
       <c r="S14" s="64"/>
     </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="84"/>
-      <c r="B15" s="79" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="90"/>
+      <c r="B15" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="64"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="86"/>
+      <c r="B16" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="65"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="65"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B17" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="63"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
-      <c r="B17" s="79" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="63"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="86"/>
+      <c r="B18" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="65"/>
-    </row>
-    <row r="18" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="65"/>
+    </row>
+    <row r="19" spans="1:19" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B19" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="67"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="67"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="O2:R2"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="J2:N2"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Desktop\TFG_Lorena\Trabajo-Fin-de-Grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE152603-4677-4094-B102-A47232E3CC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675CC1CA-43DD-4930-AF04-E6A028D322F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,39 +884,39 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,8 +925,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FFFF7C80"/>
-      <color rgb="FFFF00FF"/>
       <color rgb="FF215EE7"/>
       <color rgb="FF8CBDFE"/>
       <color rgb="FFBFD8EF"/>
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,30 +1226,30 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="87" t="s">
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="82" t="s">
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="82" t="s">
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="84"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="90"/>
       <c r="S2" s="62" t="s">
         <v>27</v>
       </c>
@@ -1315,7 +1315,7 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="91" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="76" t="s">
@@ -1340,7 +1340,7 @@
       <c r="S4" s="63"/>
     </row>
     <row r="5" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="90"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="77" t="s">
         <v>1</v>
       </c>
@@ -1363,7 +1363,7 @@
       <c r="S5" s="64"/>
     </row>
     <row r="6" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="86"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="78" t="s">
         <v>2</v>
       </c>
@@ -1392,11 +1392,11 @@
       <c r="B7" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
       <c r="H7" s="29"/>
       <c r="I7" s="45"/>
       <c r="J7" s="37"/>
@@ -1411,7 +1411,7 @@
       <c r="S7" s="66"/>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="91" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="69" t="s">
@@ -1419,9 +1419,9 @@
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="95"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
       <c r="H8" s="29"/>
       <c r="I8" s="45"/>
       <c r="J8" s="37"/>
@@ -1436,7 +1436,7 @@
       <c r="S8" s="66"/>
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="86"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="69" t="s">
         <v>44</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="29"/>
-      <c r="H9" s="96"/>
+      <c r="H9" s="87"/>
       <c r="I9" s="45"/>
       <c r="J9" s="37"/>
       <c r="K9" s="29"/>
@@ -1459,7 +1459,7 @@
       <c r="S9" s="66"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="91" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="76" t="s">
@@ -1469,8 +1469,8 @@
       <c r="D10" s="10"/>
       <c r="E10" s="21"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="79"/>
       <c r="I10" s="11"/>
       <c r="J10" s="32"/>
       <c r="K10" s="10"/>
@@ -1484,7 +1484,7 @@
       <c r="S10" s="63"/>
     </row>
     <row r="11" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="90"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="77" t="s">
         <v>8</v>
       </c>
@@ -1507,7 +1507,7 @@
       <c r="S11" s="64"/>
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="86"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="78" t="s">
         <v>9</v>
       </c>
@@ -1530,7 +1530,7 @@
       <c r="S12" s="65"/>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="91" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="76" t="s">
@@ -1555,7 +1555,7 @@
       <c r="S13" s="63"/>
     </row>
     <row r="14" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="90"/>
+      <c r="A14" s="96"/>
       <c r="B14" s="77" t="s">
         <v>11</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="S14" s="64"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="90"/>
+      <c r="A15" s="96"/>
       <c r="B15" s="77" t="s">
         <v>12</v>
       </c>
@@ -1601,7 +1601,7 @@
       <c r="S15" s="64"/>
     </row>
     <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="86"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="78" t="s">
         <v>13</v>
       </c>
@@ -1624,7 +1624,7 @@
       <c r="S16" s="65"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="91" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="76" t="s">
@@ -1649,7 +1649,7 @@
       <c r="S17" s="63"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="86"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="78" t="s">
         <v>16</v>
       </c>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Desktop\TFG_Lorena\Trabajo-Fin-de-Grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675CC1CA-43DD-4930-AF04-E6A028D322F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E4F621-B67E-445F-A065-CA8104D390FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -737,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -917,6 +917,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1214,7 +1215,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1446,7 +1447,7 @@
       <c r="F9" s="37"/>
       <c r="G9" s="29"/>
       <c r="H9" s="87"/>
-      <c r="I9" s="45"/>
+      <c r="I9" s="97"/>
       <c r="J9" s="37"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Desktop\TFG_Lorena\Trabajo-Fin-de-Grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E4F621-B67E-445F-A065-CA8104D390FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D15BA89-6983-4A96-A8FB-2645BC664AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -737,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -890,6 +890,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -917,7 +918,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1214,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1227,30 +1228,30 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="93" t="s">
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="88" t="s">
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="88" t="s">
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="91"/>
       <c r="S2" s="62" t="s">
         <v>27</v>
       </c>
@@ -1316,7 +1317,7 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="76" t="s">
@@ -1341,7 +1342,7 @@
       <c r="S4" s="63"/>
     </row>
     <row r="5" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="96"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="77" t="s">
         <v>1</v>
       </c>
@@ -1364,7 +1365,7 @@
       <c r="S5" s="64"/>
     </row>
     <row r="6" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="92"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="78" t="s">
         <v>2</v>
       </c>
@@ -1412,7 +1413,7 @@
       <c r="S7" s="66"/>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="92" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="69" t="s">
@@ -1437,7 +1438,7 @@
       <c r="S8" s="66"/>
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="92"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="69" t="s">
         <v>44</v>
       </c>
@@ -1447,7 +1448,7 @@
       <c r="F9" s="37"/>
       <c r="G9" s="29"/>
       <c r="H9" s="87"/>
-      <c r="I9" s="97"/>
+      <c r="I9" s="88"/>
       <c r="J9" s="37"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
@@ -1460,7 +1461,7 @@
       <c r="S9" s="66"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="92" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="76" t="s">
@@ -1485,7 +1486,7 @@
       <c r="S10" s="63"/>
     </row>
     <row r="11" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="96"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="77" t="s">
         <v>8</v>
       </c>
@@ -1508,7 +1509,7 @@
       <c r="S11" s="64"/>
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="92"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="78" t="s">
         <v>9</v>
       </c>
@@ -1531,7 +1532,7 @@
       <c r="S12" s="65"/>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="92" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="76" t="s">
@@ -1543,7 +1544,7 @@
       <c r="F13" s="40"/>
       <c r="G13" s="80"/>
       <c r="H13" s="80"/>
-      <c r="I13" s="11"/>
+      <c r="I13" s="98"/>
       <c r="J13" s="32"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -1556,7 +1557,7 @@
       <c r="S13" s="63"/>
     </row>
     <row r="14" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="96"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="77" t="s">
         <v>11</v>
       </c>
@@ -1579,7 +1580,7 @@
       <c r="S14" s="64"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="96"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="77" t="s">
         <v>12</v>
       </c>
@@ -1602,7 +1603,7 @@
       <c r="S15" s="64"/>
     </row>
     <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="92"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="78" t="s">
         <v>13</v>
       </c>
@@ -1625,7 +1626,7 @@
       <c r="S16" s="65"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="92" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="76" t="s">
@@ -1650,7 +1651,7 @@
       <c r="S17" s="63"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="92"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="78" t="s">
         <v>16</v>
       </c>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Desktop\TFG_Lorena\Trabajo-Fin-de-Grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D15BA89-6983-4A96-A8FB-2645BC664AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037F6DEE-F2EE-441B-803F-9D0462794F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -737,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -891,6 +891,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -918,7 +919,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,7 +1217,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1228,30 +1229,30 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="94" t="s">
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="89" t="s">
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="89" t="s">
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="92"/>
       <c r="S2" s="62" t="s">
         <v>27</v>
       </c>
@@ -1317,7 +1318,7 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="76" t="s">
@@ -1342,7 +1343,7 @@
       <c r="S4" s="63"/>
     </row>
     <row r="5" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="97"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="77" t="s">
         <v>1</v>
       </c>
@@ -1365,7 +1366,7 @@
       <c r="S5" s="64"/>
     </row>
     <row r="6" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="93"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="78" t="s">
         <v>2</v>
       </c>
@@ -1413,7 +1414,7 @@
       <c r="S7" s="66"/>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="93" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="69" t="s">
@@ -1424,7 +1425,7 @@
       <c r="E8" s="85"/>
       <c r="F8" s="85"/>
       <c r="G8" s="86"/>
-      <c r="H8" s="29"/>
+      <c r="H8" s="99"/>
       <c r="I8" s="45"/>
       <c r="J8" s="37"/>
       <c r="K8" s="29"/>
@@ -1438,7 +1439,7 @@
       <c r="S8" s="66"/>
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="93"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="69" t="s">
         <v>44</v>
       </c>
@@ -1461,7 +1462,7 @@
       <c r="S9" s="66"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="93" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="76" t="s">
@@ -1486,7 +1487,7 @@
       <c r="S10" s="63"/>
     </row>
     <row r="11" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="97"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="77" t="s">
         <v>8</v>
       </c>
@@ -1509,7 +1510,7 @@
       <c r="S11" s="64"/>
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="93"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="78" t="s">
         <v>9</v>
       </c>
@@ -1532,7 +1533,7 @@
       <c r="S12" s="65"/>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="93" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="76" t="s">
@@ -1544,7 +1545,7 @@
       <c r="F13" s="40"/>
       <c r="G13" s="80"/>
       <c r="H13" s="80"/>
-      <c r="I13" s="98"/>
+      <c r="I13" s="89"/>
       <c r="J13" s="32"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -1557,7 +1558,7 @@
       <c r="S13" s="63"/>
     </row>
     <row r="14" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="97"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="77" t="s">
         <v>11</v>
       </c>
@@ -1580,7 +1581,7 @@
       <c r="S14" s="64"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="97"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="77" t="s">
         <v>12</v>
       </c>
@@ -1603,7 +1604,7 @@
       <c r="S15" s="64"/>
     </row>
     <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="93"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="78" t="s">
         <v>13</v>
       </c>
@@ -1626,7 +1627,7 @@
       <c r="S16" s="65"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="93" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="76" t="s">
@@ -1651,7 +1652,7 @@
       <c r="S17" s="63"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="93"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="78" t="s">
         <v>16</v>
       </c>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Desktop\TFG_Lorena\Trabajo-Fin-de-Grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037F6DEE-F2EE-441B-803F-9D0462794F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C33E3A5-495F-46A5-99F7-118125B92483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>DESARROLLO DEL ALGORITMO</t>
   </si>
   <si>
-    <t>Diseñar el algoritmo y seleccionar las herramientas</t>
-  </si>
-  <si>
     <t>Implementar y probar el algoritmo</t>
   </si>
   <si>
@@ -156,10 +153,13 @@
     <t>02-06</t>
   </si>
   <si>
-    <t>Definir los algoritmos a desarrollar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Contrucción de mapas predesarrollo </t>
+  </si>
+  <si>
+    <t>Diseñar los modelos de predicción</t>
+  </si>
+  <si>
+    <t>Definir los modelos a desarrollar</t>
   </si>
 </sst>
 </file>
@@ -219,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +280,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -737,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -892,6 +898,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -919,7 +926,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1217,7 +1225,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1229,100 +1237,100 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="95" t="s">
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="90" t="s">
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="90" t="s">
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="62" t="s">
         <v>26</v>
-      </c>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="62" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>20</v>
-      </c>
       <c r="C3" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="E3" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="F3" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="G3" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="H3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="70" t="s">
+      <c r="K3" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="73" t="s">
+      <c r="L3" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="73" t="s">
+      <c r="M3" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="73" t="s">
+      <c r="N3" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="74" t="s">
+      <c r="O3" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="70" t="s">
+      <c r="P3" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="73" t="s">
+      <c r="Q3" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="73" t="s">
+      <c r="R3" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="74" t="s">
+      <c r="S3" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="75" t="s">
-        <v>42</v>
-      </c>
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="94" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
@@ -1343,7 +1351,7 @@
       <c r="S4" s="63"/>
     </row>
     <row r="5" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="98"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="77" t="s">
         <v>1</v>
       </c>
@@ -1366,7 +1374,7 @@
       <c r="S5" s="64"/>
     </row>
     <row r="6" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="94"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="78" t="s">
         <v>2</v>
       </c>
@@ -1414,7 +1422,7 @@
       <c r="S7" s="66"/>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="94" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="69" t="s">
@@ -1425,7 +1433,7 @@
       <c r="E8" s="85"/>
       <c r="F8" s="85"/>
       <c r="G8" s="86"/>
-      <c r="H8" s="99"/>
+      <c r="H8" s="90"/>
       <c r="I8" s="45"/>
       <c r="J8" s="37"/>
       <c r="K8" s="29"/>
@@ -1439,9 +1447,9 @@
       <c r="S8" s="66"/>
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="94"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="29"/>
@@ -1462,11 +1470,11 @@
       <c r="S9" s="66"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="94" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="10"/>
@@ -1474,7 +1482,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="10"/>
       <c r="H10" s="79"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="101"/>
       <c r="J10" s="32"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -1486,18 +1494,18 @@
       <c r="R10" s="21"/>
       <c r="S10" s="63"/>
     </row>
-    <row r="11" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="98"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="99"/>
       <c r="B11" s="77" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="13"/>
       <c r="E11" s="47"/>
       <c r="F11" s="33"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="54"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="100"/>
       <c r="J11" s="57"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -1510,9 +1518,9 @@
       <c r="S11" s="64"/>
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="94"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="35"/>
@@ -1533,11 +1541,11 @@
       <c r="S12" s="65"/>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="93" t="s">
-        <v>10</v>
+      <c r="A13" s="94" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="20"/>
@@ -1558,9 +1566,9 @@
       <c r="S13" s="63"/>
     </row>
     <row r="14" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="98"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="13"/>
@@ -1581,9 +1589,9 @@
       <c r="S14" s="64"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="98"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="14"/>
@@ -1604,9 +1612,9 @@
       <c r="S15" s="64"/>
     </row>
     <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="94"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="27"/>
@@ -1627,11 +1635,11 @@
       <c r="S16" s="65"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="76" t="s">
         <v>14</v>
-      </c>
-      <c r="B17" s="76" t="s">
-        <v>15</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="6"/>
@@ -1652,9 +1660,9 @@
       <c r="S17" s="63"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="94"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="27"/>
@@ -1676,10 +1684,10 @@
     </row>
     <row r="19" spans="1:19" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="69" t="s">
         <v>17</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>18</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="50"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Desktop\TFG_Lorena\Trabajo-Fin-de-Grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C33E3A5-495F-46A5-99F7-118125B92483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD029C2-678F-4E98-8379-15B02BEBF801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,18 +51,12 @@
     <t>DESARROLLO DEL ALGORITMO</t>
   </si>
   <si>
-    <t>Implementar y probar el algoritmo</t>
-  </si>
-  <si>
     <t>DESARROLLO DE LA APLICACIÓN SHINY</t>
   </si>
   <si>
     <t>Diseñar la estructura y funcionalidad de la APP</t>
   </si>
   <si>
-    <t>Integrar el algoritmo con la aplicación</t>
-  </si>
-  <si>
     <t>Realizar pruebas y corregir errores</t>
   </si>
   <si>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>Definir los modelos a desarrollar</t>
+  </si>
+  <si>
+    <t>Integración de los resultados obtenidos</t>
+  </si>
+  <si>
+    <t>Creación de mapas resultantes</t>
   </si>
 </sst>
 </file>
@@ -287,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -739,11 +739,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -842,7 +894,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
@@ -899,6 +950,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,8 +979,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1225,7 +1284,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1237,100 +1296,100 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="96" t="s">
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="91" t="s">
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="61" t="s">
         <v>24</v>
-      </c>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="62" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="74" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>21</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
@@ -1348,11 +1407,11 @@
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="21"/>
-      <c r="S4" s="63"/>
+      <c r="S4" s="62"/>
     </row>
     <row r="5" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="99"/>
-      <c r="B5" s="77" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="76" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="22"/>
@@ -1371,11 +1430,11 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="23"/>
-      <c r="S5" s="64"/>
+      <c r="S5" s="63"/>
     </row>
     <row r="6" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="95"/>
-      <c r="B6" s="78" t="s">
+      <c r="A6" s="96"/>
+      <c r="B6" s="77" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="24"/>
@@ -1394,20 +1453,20 @@
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="28"/>
-      <c r="S6" s="65"/>
+      <c r="S6" s="64"/>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
       <c r="H7" s="29"/>
       <c r="I7" s="45"/>
       <c r="J7" s="37"/>
@@ -1419,21 +1478,21 @@
       <c r="P7" s="30"/>
       <c r="Q7" s="30"/>
       <c r="R7" s="31"/>
-      <c r="S7" s="66"/>
+      <c r="S7" s="65"/>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="68" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="29"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="90"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="89"/>
       <c r="I8" s="45"/>
       <c r="J8" s="37"/>
       <c r="K8" s="29"/>
@@ -1444,20 +1503,20 @@
       <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
       <c r="R8" s="31"/>
-      <c r="S8" s="66"/>
+      <c r="S8" s="65"/>
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="95"/>
-      <c r="B9" s="69" t="s">
-        <v>42</v>
+      <c r="A9" s="96"/>
+      <c r="B9" s="68" t="s">
+        <v>40</v>
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="29"/>
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="29"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="88"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="87"/>
       <c r="J9" s="37"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
@@ -1467,22 +1526,22 @@
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
       <c r="R9" s="31"/>
-      <c r="S9" s="66"/>
+      <c r="S9" s="65"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="76" t="s">
-        <v>44</v>
+      <c r="B10" s="75" t="s">
+        <v>42</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="10"/>
       <c r="E10" s="21"/>
       <c r="F10" s="32"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="101"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="91"/>
       <c r="J10" s="32"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
@@ -1492,12 +1551,12 @@
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="21"/>
-      <c r="S10" s="63"/>
+      <c r="S10" s="62"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="99"/>
-      <c r="B11" s="77" t="s">
-        <v>43</v>
+      <c r="A11" s="100"/>
+      <c r="B11" s="76" t="s">
+        <v>41</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="13"/>
@@ -1505,141 +1564,141 @@
       <c r="F11" s="33"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="64"/>
-    </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="95"/>
-      <c r="B12" s="78" t="s">
+      <c r="I11" s="90"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="108"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="100"/>
+      <c r="B12" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="63"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="96"/>
+      <c r="B13" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="64"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="65"/>
-    </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="94" t="s">
+      <c r="B14" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="62"/>
+    </row>
+    <row r="15" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="100"/>
+      <c r="B15" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="63"/>
-    </row>
-    <row r="14" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="99"/>
-      <c r="B14" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="64"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="99"/>
-      <c r="B15" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="57"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="33"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="23"/>
-      <c r="S15" s="64"/>
+      <c r="S15" s="63"/>
     </row>
     <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="95"/>
-      <c r="B16" s="78" t="s">
+      <c r="A16" s="100"/>
+      <c r="B16" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="63"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="75" t="s">
         <v>12</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="65"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="76" t="s">
-        <v>14</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="6"/>
@@ -1657,12 +1716,12 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="46"/>
-      <c r="S17" s="63"/>
+      <c r="S17" s="62"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="95"/>
-      <c r="B18" s="78" t="s">
-        <v>15</v>
+      <c r="A18" s="96"/>
+      <c r="B18" s="77" t="s">
+        <v>13</v>
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="27"/>
@@ -1679,15 +1738,15 @@
       <c r="O18" s="39"/>
       <c r="P18" s="27"/>
       <c r="Q18" s="36"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="65"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="64"/>
     </row>
     <row r="19" spans="1:19" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>17</v>
+      <c r="A19" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>15</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="50"/>
@@ -1703,9 +1762,9 @@
       <c r="N19" s="51"/>
       <c r="O19" s="49"/>
       <c r="P19" s="50"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="67"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="66"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
@@ -1729,10 +1788,10 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="J2:N2"/>
-    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Desktop\TFG_Lorena\Trabajo-Fin-de-Grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD029C2-678F-4E98-8379-15B02BEBF801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDC1C8E-9296-47DC-AA9A-9C086FA3E6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +218,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +293,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="37">
     <border>
@@ -795,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -952,33 +965,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -987,6 +973,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1284,7 +1301,7 @@
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1296,30 +1313,30 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="97" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="92" t="s">
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="92" t="s">
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="94"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="102"/>
       <c r="S2" s="61" t="s">
         <v>24</v>
       </c>
@@ -1385,7 +1402,7 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="75" t="s">
@@ -1410,7 +1427,7 @@
       <c r="S4" s="62"/>
     </row>
     <row r="5" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="100"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="76" t="s">
         <v>1</v>
       </c>
@@ -1433,7 +1450,7 @@
       <c r="S5" s="63"/>
     </row>
     <row r="6" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="96"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="77" t="s">
         <v>2</v>
       </c>
@@ -1481,7 +1498,7 @@
       <c r="S7" s="65"/>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="103" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="68" t="s">
@@ -1506,7 +1523,7 @@
       <c r="S8" s="65"/>
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="96"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="68" t="s">
         <v>40</v>
       </c>
@@ -1529,7 +1546,7 @@
       <c r="S9" s="65"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="103" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="75" t="s">
@@ -1554,7 +1571,7 @@
       <c r="S10" s="62"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="100"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="76" t="s">
         <v>41</v>
       </c>
@@ -1565,19 +1582,19 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="90"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
       <c r="N11" s="90"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="108"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="99"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="100"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="76" t="s">
         <v>44</v>
       </c>
@@ -1591,16 +1608,16 @@
       <c r="J12" s="33"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="14"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="112"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="23"/>
       <c r="S12" s="63"/>
     </row>
     <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="96"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="77" t="s">
         <v>10</v>
       </c>
@@ -1623,7 +1640,7 @@
       <c r="S13" s="64"/>
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="103" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="75" t="s">
@@ -1648,7 +1665,7 @@
       <c r="S14" s="62"/>
     </row>
     <row r="15" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="76" t="s">
         <v>9</v>
       </c>
@@ -1658,12 +1675,12 @@
       <c r="F15" s="33"/>
       <c r="G15" s="80"/>
       <c r="H15" s="80"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="104"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="95"/>
       <c r="K15" s="80"/>
       <c r="L15" s="80"/>
       <c r="M15" s="80"/>
-      <c r="N15" s="103"/>
+      <c r="N15" s="94"/>
       <c r="O15" s="33"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
@@ -1671,7 +1688,7 @@
       <c r="S15" s="63"/>
     </row>
     <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="100"/>
+      <c r="A16" s="108"/>
       <c r="B16" s="76" t="s">
         <v>43</v>
       </c>
@@ -1694,7 +1711,7 @@
       <c r="S16" s="63"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="103" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="75" t="s">
@@ -1719,7 +1736,7 @@
       <c r="S17" s="62"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="96"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="77" t="s">
         <v>13</v>
       </c>

--- a/Cronograma_TFG.xlsx
+++ b/Cronograma_TFG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorena\Desktop\TFG_Lorena\Trabajo-Fin-de-Grado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luism\Desktop\TFG_Lorena\Trabajo-Fin-de-Grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDC1C8E-9296-47DC-AA9A-9C086FA3E6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2BDDB3-7CF2-4368-9FCB-A76C95F08BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
-  <si>
-    <t>INVESTIGACIÓN Y REVISIÓN BIBLIOGRÁFICA</t>
-  </si>
-  <si>
-    <t>Busqueda de bibliográfica sobre el estado del arte</t>
-  </si>
-  <si>
-    <t>Elaboración de un resumen con los conceptos claves</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>RECOPILACIÓN DE DATOS</t>
   </si>
@@ -82,9 +73,6 @@
   </si>
   <si>
     <t>Aprendizaje de la aplicación SHINY</t>
-  </si>
-  <si>
-    <t>Tema y objetivos</t>
   </si>
   <si>
     <t>Febrero</t>
@@ -178,13 +166,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,8 +206,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF003300"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,31 +241,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,13 +253,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFFF66CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFF93535"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -820,50 +820,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
@@ -881,32 +851,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
@@ -918,28 +868,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -951,24 +901,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
@@ -982,10 +917,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -997,13 +932,34 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,6 +968,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF003300"/>
+      <color rgb="FFF93535"/>
+      <color rgb="FFFF66CC"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FF215EE7"/>
@@ -1019,9 +978,6 @@
       <color rgb="FFBFD8EF"/>
       <color rgb="FFD8E6F8"/>
       <color rgb="FFAFCEEB"/>
-      <color rgb="FFECF6FE"/>
-      <color rgb="FF3700C0"/>
-      <color rgb="FFCC0099"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1298,518 +1254,446 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="35.54296875" customWidth="1"/>
-    <col min="3" max="19" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" customWidth="1"/>
+    <col min="3" max="19" width="4.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="100" t="s">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="105" t="s">
+    </row>
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="100" t="s">
+      <c r="D3" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="100" t="s">
+      <c r="E3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="61" t="s">
+      <c r="F3" s="47" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="69" t="s">
+      <c r="G3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="H3" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="K3" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="L3" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="M3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="69" t="s">
+      <c r="N3" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="O3" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="72" t="s">
+      <c r="P3" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="72" t="s">
+      <c r="Q3" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="73" t="s">
+      <c r="R3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="69" t="s">
+      <c r="S3" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="72" t="s">
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="43"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="43"/>
+    </row>
+    <row r="6" spans="1:20" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="67"/>
+      <c r="B6" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="72" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="43"/>
+    </row>
+    <row r="7" spans="1:20" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="40"/>
+    </row>
+    <row r="8" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="71"/>
+      <c r="B8" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="74" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="62"/>
+    </row>
+    <row r="9" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="71"/>
+      <c r="B9" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="41"/>
+    </row>
+    <row r="10" spans="1:20" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="67"/>
+      <c r="B10" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="42"/>
+    </row>
+    <row r="11" spans="1:20" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="40"/>
+    </row>
+    <row r="12" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="71"/>
+      <c r="B12" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="41"/>
+    </row>
+    <row r="13" spans="1:20" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="71"/>
+      <c r="B13" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="62"/>
-    </row>
-    <row r="5" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="108"/>
-      <c r="B5" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="63"/>
-    </row>
-    <row r="6" spans="1:20" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="104"/>
-      <c r="B6" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="64"/>
-    </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="65"/>
-    </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="103" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="65"/>
-    </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="104"/>
-      <c r="B9" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="65"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="103" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="62"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="108"/>
-      <c r="B11" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="99"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="63"/>
-    </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="104"/>
-      <c r="B13" s="77" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="41"/>
+    </row>
+    <row r="14" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="40"/>
+    </row>
+    <row r="15" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="67"/>
+      <c r="B15" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="64"/>
-    </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="103" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="62"/>
-    </row>
-    <row r="15" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="108"/>
-      <c r="B15" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="63"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="108"/>
-      <c r="B16" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="63"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="103" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="42"/>
+    </row>
+    <row r="16" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="62"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="104"/>
-      <c r="B18" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="64"/>
-    </row>
-    <row r="19" spans="1:19" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="66"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="44"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="O2:R2"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A10"/>
     <mergeCell ref="J2:N2"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
